--- a/PvB SD/08 Logboek/Logboek kandidaat Shibin.xlsx
+++ b/PvB SD/08 Logboek/Logboek kandidaat Shibin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pansh\Desktop\PvB SD\08 Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pansh\Desktop\Stage\PvB SD\08 Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD69E3E8-007A-4FCB-BC81-20FA6920AAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFD73BA-27CC-4486-85C7-36CB8E13E2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -42,29 +42,245 @@
     <t>Op de eerste dag iedereen leren kennen, en wat uitleg gekregen van bijvoorbeeld hoe het bedrijf is ontstaan, wat de examenopdracht kunnen zijn, etc. Kreeg een opwarmopdracht om met framework ‘Blazor’ te beginnen, moet een webpagina waar ik een bestand kan uploaden, en dan uploadt hij naar een specifieke map. Dus ben ik daar de hele dag beziggeweest.</t>
   </si>
   <si>
-    <t>8 uur</t>
-  </si>
-  <si>
     <t>Blazor webapplicatie klaar, hij gaat alle bestanden uploaden naar een map. Maar word gevraagd om Blazor in windows forms te verwerken, ben de hele dag meebezig geweest. Maar je kan niet een eigen pad te selecteren. Het is op dit moment nog hardcoded.</t>
   </si>
   <si>
     <t>Windows forms in elkaar gezet, maar wordt nogmaals gevraagd om een eigen filepath te kunnen selecteren, daar ben ik de hele dag beziggeweest, hij wil het maar niet. Nu kan de gebruiker alleen via een input zijn eigen filepath invullen.</t>
   </si>
   <si>
-    <t>De gebruiker kan via een knop een eigen pad selecteren, dus het gaat niet alleen maar via een inputveld, en hij slaat het nieuwe pad ook gelijk op in een json-bestand, (alleen in de verkeerde json). Eind van de dag kwam ik pas achter hoe ik dit moet fixen.</t>
-  </si>
-  <si>
-    <t>1. Het programma is helemaal klaar. Je kan als gebruiker eigen pad selecteren, en het pad wordt ook gelijk opslaan. Als je het programma de volgende keer opnieuw opstart, wordt het nieuwe pad geladen. De bestanden worden ook naar het nieuwe pad geupload. Het werkt op elke computer.</t>
-  </si>
-  <si>
-    <t>2. Uitleg gekregen van de examenopdracht, beginnetje gemaakt aan de examenopdrachtomschrijving.</t>
+    <t>De gebruiker kan via een knop een eigen pad selecteren, dus het gaat niet alleen maar via een inputveld, en hij slaat het nieuwe pad ook gelijk op in een json-bestand, (alleen in de verkeerde json). Eind van de dag kwam ik pas erachter hoe ik dit moet fixen.</t>
+  </si>
+  <si>
+    <t>1. Het programma is helemaal klaar. Je kan als gebruiker eigen pad selecteren, en het pad wordt ook gelijk opgeslagen. Als je het programma de volgende keer opnieuw opstart, wordt het nieuwe pad geladen. De bestanden worden ook naar het nieuwe opgegeven nieuw pad geüpload. Het werkt op elke computer.</t>
+  </si>
+  <si>
+    <t>2. Uitleg gekregen van de examenopdracht. Examenopdracht omschrijving afgemaakt, onder andere de omschrijving, en de aanvullende afspraken. Goedgekeurd door William. Gestuurd naar meneer de Boer.</t>
+  </si>
+  <si>
+    <t>3. Wacht op goedkeuring. Begonnen met afgesproken documentatie-&gt;Functioneel Ontwerp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trello bord aangemaakt zodat ik een beetje overzicht heb wat ik al gedaan heb en wat ik aan het doen ben. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Functioneel ontwerp afgemaakt. Goedgekeurd door William. </t>
+  </si>
+  <si>
+    <t>3. Georiënteerd op alle data van PDF eruit halen, verder genereer een nieuw XML-bestand.</t>
+  </si>
+  <si>
+    <t> 8</t>
+  </si>
+  <si>
+    <t>Was in de ochtend beetje ziek, dus ben thuis gebleven. Maar in de middag nog even bezig geweest.</t>
+  </si>
+  <si>
+    <t>1. Word gevraagd om een stroomdiagram te maken voor functioneel ontwerp(om schematisch te laten zien hoe de tool eigenlijk zou werken)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Begonnen met Research analyse </t>
+  </si>
+  <si>
+    <t> 5</t>
+  </si>
+  <si>
+    <t>1. Research analyse af(Dat is een document waar je grondig analyseert over het ontwikkelen van een project. Met verschillende aspecten kan ik dus een goed onderbouwde beslissing nemen over de beste aanpak.)</t>
+  </si>
+  <si>
+    <t>2. Begonnen met technisch ontwerp</t>
+  </si>
+  <si>
+    <t>8 </t>
+  </si>
+  <si>
+    <t>Georiënteerd om de data’s vanuit PDF te halen, en vervolgens het genereren van een nieuw XML-bestand. Alles is hardcoded, waar het PDF-bestand vandaan komt, en waar de XML-bestand geupload wordt. Geprobeerd om de data’s in variabelen te zetten. Wat ik heb gedaan is eerste een hele pdf converteren naar bewerkbare tekst, en dan verschillende strings uit een grote string halen. Of anders met behulp van de coördinaties de tekst uithalen.</t>
+  </si>
+  <si>
+    <t>Verder georiënteerd om de basiskennis te creëren om de data’s uit een PDF-bestand halen, en over te zetten naar een XML-bestand</t>
+  </si>
+  <si>
+    <t>Oriëntatiefase: Alle data’s in variabelen gezet, en het importeren naar XML ben nog mee bezig, want ik weet niet hoe de structuur van zo’n XML-bestand eruit ziet.</t>
+  </si>
+  <si>
+    <t>1. Stroomdiagram en Research analyse laten goedkeuren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Technisch ontwerp klaar, laten kijken maar nog wat kleine puntjes.  </t>
+  </si>
+  <si>
+    <t>3. Verder met de oriëntatiefase, alle data’s worden in een overzichtelijke en logische manier geplaatst in XML-bestand. Dus klantnummer staat bij Klantnummer, orders horen bij Orders etc.</t>
+  </si>
+  <si>
+    <t>4. Technisch ontwerp bijgewerkt met extra puntjes(welke tool ik ga gebruiken tijdens het ontwikkelen).</t>
+  </si>
+  <si>
+    <t>1. Prodist XML-bestand gekregen met goede structuur, dus ben daarmee aan de slag, alle data’s in goede structuur geplaatst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. hardcoded(waar het vandaan komt en waar hij heengaat) PDF-bestand wordt nu volledig omgezet naar XML-bestand. </t>
+  </si>
+  <si>
+    <t>3. Examenopdrachtomschrijving verbeterd en opnieuw gestuurd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Prototype begonnen(ipv bestanden uploaden naar PDF-bestanden omzetten) met dat gebruiker meerdere bestanden kan opzetten, en vervolgens zijn eigen pad kan selecteren, en dan omzetten naar XML bestanden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verder met het Prototype. </t>
+  </si>
+  <si>
+    <t>2. Validatie op geüploade bestanden PDF, en/of van een specifieke hotelketen zijn.</t>
+  </si>
+  <si>
+    <t>3. Drag and Drop, was bij de eerste opwarmopdracht niet helemaal gelukt, dus hiermee bezig geweest.</t>
+  </si>
+  <si>
+    <t>1. Begonnen met FileSystemWatcher, het is een class waar ik gebruik kan maken voor het beluisteren naar een map. Mijn tool moet ook werken als ik een nieuwe pad heb geselecteerd.</t>
+  </si>
+  <si>
+    <t>2. FileSystemWatcher moet geactiveerd kunnen als er een nieuwe pad wordt geselecteerd, zodra er in de nieuwe map een wijziging wordt gedaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verder met FileSystemWatcher na het selecteren van een nieuwe pad. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Testen van het Prototype, en eventueel verbetering voor het Prototype. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Clickable image, zodat je daar ook een bestand kan uploaden). </t>
+  </si>
+  <si>
+    <t>3. Project gepublishd, zodat hij beter getest kan worden. Dan heeft anderen niet sourcecode, maar als apart programma(exe). Met zakelijke computer getest, het werkt(moet William nog even laten testen)</t>
+  </si>
+  <si>
+    <t>1. Defaultpad opgegeven als de pad in configuratiebestand niet bestaat, zodat hij bij het opstart van de app niet crasht.</t>
+  </si>
+  <si>
+    <t>2. Omgezet bestanden in een submap functie, zodat de tool niet hetzelfde bestand opnieuw omzet</t>
+  </si>
+  <si>
+    <t>2. Configuratiebestand aangemaakt, zodat voor later andere bedrijven ook gebruik kan maken.</t>
+  </si>
+  <si>
+    <t>Heb in totaal 141 PDF bestanden gekregen, zijn er 12 bestanden die error geven, 3 ervan zijn de funtionaliteit waar ik gisteren mee bezig was, dat ze naar een submap geplaatst moeten. 9 ervan zijn de functionaliteiten met de tekst zelf. Dus ben daar nog beziggeweest.</t>
+  </si>
+  <si>
+    <t>Nog verder bezig met de bugs fixen. Als de cel in de pdf een newline(\n) bevat, dan wordt hij ook letterlijk uitgehaald, dus ben ik even bezig.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van 11 error’s naar 3 error’s(1 is tekst, en 2 zijn van de submap(nog niet eraan toe)). </t>
+  </si>
+  <si>
+    <t>1. Verder met de bugs oplossen</t>
+  </si>
+  <si>
+    <t>2. de tekstbug is helemaal gefixt, ook alle files(naast de submaperror) opnieuw gerund, is gelukt, verder met de submaperror.</t>
+  </si>
+  <si>
+    <t>3. Verder met het uitzoeken hoe de configuratie werkt.</t>
+  </si>
+  <si>
+    <t>1. Heb alleen maar probleem met gepublished versie, de bedoeling is dat beter getest kan worden. Uiteindelijk heeft het te maken dat de configuratie niet goed is ingesteld, dus alles maar teruggezet. Verder heeft het programma toestemming nodig om bestanden te schrijven en te verplaatsen.</t>
+  </si>
+  <si>
+    <t>2. Getest op zakelijke computer, het werkt ook.</t>
+  </si>
+  <si>
+    <t>3. Onderzoek over het uitlezen van tekst vanuit logo. (Als het mogelijk is zal top zijn, want je hebt ook hotelnamen die geen ‘NH’ bevat).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Verder met onderzoek naar de configuratie, en het configuratie bestand gemaakt met ‘NH’ coördinaten, maar nog niet geïmplementeerd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Was in de ochtend weer een beetje ziek, dus ik ben thuisgebleven, maar ben verder op onderzoek op het uitlezen van tekst uit het logo. </t>
+  </si>
+  <si>
+    <t>2. laatste versie programma gestuurd naar William om te testen.</t>
+  </si>
+  <si>
+    <t>1. Test prototype doorgelopen met William met 141 bestanden, en het proces even laten zien.</t>
+  </si>
+  <si>
+    <t>2. Definitie bestand geupdated(maar nog niet in gebruik)(daar wordt alle coördinaten opgeslagen), zodat dit voor later ook bruikbaar is voor bijvoorbeeld andere bedrijven(niet alleen NH). -&gt;json-bestand.</t>
+  </si>
+  <si>
+    <t>3. Verder met het oriënteren op het uitlezen van tekst vanuit het logo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. De code doorgelopen met Marco(technische begeleider), aan het configuratiebestand. Zodat later ook voor andere bedrijven gelden</t>
+  </si>
+  <si>
+    <t>2. Verder met het configbestand</t>
+  </si>
+  <si>
+    <t>1. Configbestand.</t>
+  </si>
+  <si>
+    <t>2. Ben heel stuk verder gekomen, alleen voor meer pagina’s pdf stort hij meerdere keer de data in de xml, dus daar moet ik een oplossing voor bedenken. En de artikelen worden nog niet in de xml gezet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verder met het definitiebestand. De artikelen worden nu ook in xml geladen. Alleen de per artikel spliten is nog een dingetje(Pdf met meer pagina’s wordt ook meerdere xmltag gemaakt, dat was de reden dat er soms dubbele xmltags voorkomen). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verder met het configratiebestand: </t>
+  </si>
+  <si>
+    <t>Voor pdf’s met een pagina helemaal klaar. (De teksten worden goed verdeeld in xmltags)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omdat de pdfreader de pagina’s apart leest, komt er in xml dubbele tags(ivm dubbele loop). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moest in de ochtend met mijn vader naar het ziekenhuis, dus heb van tevoren gevraagd of ik thuis kan werken, dan scheelt het ook weer reistijd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Verder met configbestand. </t>
+  </si>
+  <si>
+    <t>2. de dubbele tags gefixt</t>
+  </si>
+  <si>
+    <t>3. de artikelen worden wel goed gestort, alleen de loop is nog niet helemaal goedgedaan, waardoor hij alleen de laatste value pakt.</t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Het prototype en definitie programma in twee mappen verdeeld, dat is meer overzichtelijker. </t>
+  </si>
+  <si>
+    <t>2. Verder met het configbestand. Artikelen worden goed verdeeld. Het configbestand is grotendeels ook klaar</t>
+  </si>
+  <si>
+    <t>3. Laten zien aan William voor eventueel verbetering</t>
+  </si>
+  <si>
+    <t>4. De bug gefixt dat als een pdf in submap zit, en je upload opnieuw de pdf, dat hij crasht(afsluit). Als de pdf al bestaat, verwijder dat bestand.</t>
+  </si>
+  <si>
+    <t>Het is gewoon kleine details verbeteren, en de bugs fixen</t>
+  </si>
+  <si>
+    <t>1. sommige dingen in class/functie gezet(verplaatsen of verwijderen van pdf bestanden..)</t>
+  </si>
+  <si>
+    <t>2. bugs gefixt als je een niet-pdf-bestand in de map doet, dat hij niks doet-&gt;naar submap “afgewezen”</t>
+  </si>
+  <si>
+    <t>3. Filesytemwatcher houdt nog steeds de oude map in de gaten, ook als ik een nieuwe pad heb opgegeven-&gt;nieuwe opgegeven pad wordt in de gaten gehouden</t>
+  </si>
+  <si>
+    <t>Configuratie bestand aangemaakt voorandere bedrijf. Dat wil zeggen dat ik aan het testen ben. Wat ik hoef te doen is het configuratiebestand aanmaken, om door te geven waar wat staat. En kijken of mijn tool goed werkt.</t>
+  </si>
+  <si>
+    <t>Uren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +290,19 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -95,7 +324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -177,11 +406,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -189,25 +429,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,198 +792,956 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="84.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>45334</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>45335</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>45335</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>45336</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>45336</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>45337</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="95.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>45337</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>45338</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="15">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>45338</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>45341</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>45342</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>45343</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>45344</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>45345</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>45348</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14"/>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>45349</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="14"/>
+      <c r="B27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
+        <v>45350</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
+        <v>45351</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="14"/>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>45352</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
+        <v>45355</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="18">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="64.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>45341</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>45342</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>45343</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>45344</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>45345</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>45348</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>45349</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>45350</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>45351</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>45352</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>45355</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12"/>
+      <c r="B38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5">
         <v>45356</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="B40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="6">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
         <v>45357</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+      <c r="B41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
         <v>45358</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+      <c r="B43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="12"/>
+      <c r="B44" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
         <v>45359</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="18"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
+      <c r="B47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+    </row>
+    <row r="48" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="12"/>
+      <c r="B48" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+    </row>
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>45362</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="12"/>
+      <c r="B51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>45363</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="19"/>
+    </row>
+    <row r="53" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="12"/>
+      <c r="B53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>45364</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
+        <v>45365</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+    </row>
+    <row r="59" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>45366</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
+        <v>45369</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="12"/>
+      <c r="B61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+    </row>
+    <row r="62" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+    </row>
+    <row r="63" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
+        <v>45370</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="12"/>
+      <c r="B64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="12"/>
+      <c r="B65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+    </row>
+    <row r="66" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+    </row>
+    <row r="67" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
+        <v>45371</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="12"/>
+      <c r="B68" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
+      <c r="B69" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="14"/>
+      <c r="B70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>45372</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="18"/>
+    </row>
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="12"/>
+      <c r="B72" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="12"/>
+      <c r="B73" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>45373</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>45376</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>45377</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>45378</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5">
+        <v>45379</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5">
+        <v>45380</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5">
+        <v>45384</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5">
+        <v>45385</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>45386</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5">
+        <v>45387</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>45390</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5">
+        <v>45391</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>45392</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5">
+        <v>45393</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>45394</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>45397</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>45398</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>45400</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>45401</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+  <mergeCells count="66">
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
